--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\Front-End\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC071BC-C1A8-4FE2-A6E8-4C97BDE9A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095AB01-21CB-4DF2-81A7-FEE6E6B23DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5303" yWindow="6157" windowWidth="21599" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5303" yWindow="4178" windowWidth="21599" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,11 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陌陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/时间待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,15 +552,15 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\Front-End\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095AB01-21CB-4DF2-81A7-FEE6E6B23DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97C7478-DD0A-4ED6-AFBD-20FBC624A685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5303" yWindow="4178" windowWidth="21599" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="727" yWindow="6067" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.19/电话/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小黑盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.20/视频/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传智教育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,7 +110,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/时间待定</t>
+    <t>first/22.01.19/电话/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.20/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.24/视频/19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.25/视频/18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.25/视频/12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,8 +461,8 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" customWidth="1"/>
+    <col min="3" max="3" width="24.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -480,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -488,68 +492,68 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -557,10 +561,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\Front-End\JavaScriptNotes\Interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\FrontEnd-Qin\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97C7478-DD0A-4ED6-AFBD-20FBC624A685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE440D-E447-4765-AFAD-69DF8B506DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="727" yWindow="6067" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,42 +66,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.21/视频/17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.21/视频/19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.24/视频/17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白海科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.25/视频/19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.26/视频/17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传智教育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.23/视频/13:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小红书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,15 +94,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.24/视频/19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.25/视频/18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second/22.01.25/视频/12:00</t>
+    <t>牛客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.21/视频/面试取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.24/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.23/视频/待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.26/视频/20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.25/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想进行二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.26/视频/待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐焦点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.27/视频/16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里-企业智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.27/电话/18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.25/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年后进行现场面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.25/视频/待定（大概率不过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.21/视频/待定（大概率不过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.27/视频/待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.26/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.27/视频/17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.27/视频/待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +196,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -170,8 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,20 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="2" max="2" width="25.265625" customWidth="1"/>
-    <col min="3" max="3" width="24.9296875" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.9140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,96 +537,146 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\FrontEnd-Qin\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE440D-E447-4765-AFAD-69DF8B506DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4091046-50FA-4B64-8BCC-A0DA062C36A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,18 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.25/视频/待定（大概率不过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first/22.01.21/视频/待定（大概率不过）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second/22.01.27/视频/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first/22.01.26/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +171,18 @@
   </si>
   <si>
     <t>first/22.01.27/视频/待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.25/视频/待定（未通过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.27/视频/待定（未通过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,21 +517,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.9140625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="3" max="3" width="33.4140625" customWidth="1"/>
+    <col min="4" max="4" width="26.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +544,11 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,7 +562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -563,7 +570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -571,15 +578,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -587,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -595,7 +602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -603,10 +610,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -617,7 +624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -628,26 +635,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -655,15 +662,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -671,7 +678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\FrontEnd-Qin\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4091046-50FA-4B64-8BCC-A0DA062C36A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C503489E-0059-4F70-9745-C87DEAE9AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.23/视频/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second/22.01.26/视频/20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,30 +118,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不想进行二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.26/视频/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜狐焦点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.27/视频/16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里-企业智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.01.27/电话/18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second/22.01.25/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,35 +134,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年后进行现场面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.21/视频/待定（大概率不过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first/22.01.26/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second/22.01.27/视频/17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.27/视频/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.01.25/视频/待定（未通过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second/22.01.27/视频/待定（未通过）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forth</t>
+    <t>third/22.02.09/现场面试/通过（不接这个 offer）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forth（hr）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.27/电话/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.27/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.27/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third/22.02.08/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr/22.02.10/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.02.12/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third/22.02.16/视频/待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.02.10/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third/22.02.18/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr/时间待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.02.11/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.02.14/电话/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third/22.02.16/电话/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易有道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.02.21/视频/19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度-智能云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.02.22/视频/18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.02.21/视频/17:30（未确认这个时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.21/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.23/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.01.25/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.27/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面不再继续进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +267,42 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,9 +326,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,18 +614,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.4140625" customWidth="1"/>
-    <col min="4" max="4" width="26.4140625" customWidth="1"/>
+    <col min="4" max="4" width="41.08203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -542,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,17 +654,17 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -574,7 +672,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -582,15 +680,15 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -598,8 +696,8 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,8 +707,8 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -621,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,18 +727,18 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,10 +746,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,7 +763,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -667,23 +777,68 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\FrontEnd-Qin\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C503489E-0059-4F70-9745-C87DEAE9AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5402CEBD-B851-4C78-8833-86CFFFA4F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second/22.01.26/视频/20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first/22.01.25/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,26 +198,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.02.21/视频/19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百度-智能云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.02.22/视频/18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first/22.02.21/视频/17:30（未确认这个时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first/22.01.21/视频/未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +219,78 @@
   </si>
   <si>
     <t>二面不再继续进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.02.21/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.02.22/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动终止二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.02.21/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.01 下午 13:30 - 18:00 连续进行四场面试/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 - Azure Global Infrastructure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 - Intelligence-Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.03.07/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团 - 金服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.03.16/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.03.16/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 - content ecosystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.03.17/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面 - 四面时间待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易有道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.03.18/视频/待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second/22.01.26/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr/22.02.23/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,17 +666,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="32.9140625" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.4140625" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
     <col min="4" max="4" width="41.08203125" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
@@ -640,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,8 +770,8 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,10 +779,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -738,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,16 +798,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,13 +815,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,68 +829,112 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\FrontEnd-Qin\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5402CEBD-B851-4C78-8833-86CFFFA4F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399E3383-1EB9-4437-9468-393C263AB836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>third/22.02.16/视频/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second/22.02.10/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hr/时间待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second/22.02.11/视频/未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,23 +266,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二面 - 四面时间待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网易有道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first/22.03.18/视频/待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second/22.01.26/视频/未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hr/22.02.23/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.03.18/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团 - 机票火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first/22.03.23/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.28 下午 / 22.03.29 下午 - 五轮面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>third/22.02.16/视频/通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr/22.02.21/电话/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr/22.02.22/视频/未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -733,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -771,7 +783,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,7 +833,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,13 +847,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -849,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -860,81 +875,89 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>64</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Interview/companyAndInterviews.xlsx
+++ b/Interview/companyAndInterviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Work\FrontEnd-Qin\JavaScriptNotes\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399E3383-1EB9-4437-9468-393C263AB836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5369FDE-B693-4281-857C-01A6DB745502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传智教育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.03.28 下午 / 22.03.29 下午 - 五轮面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>third/22.02.16/视频/通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +295,14 @@
   </si>
   <si>
     <t>hr/22.02.22/视频/未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.28 下午 - 三轮面试/未通过/ 22.03.29 下午 - 两轮面试/取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节-安全与风控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,15 +680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.9140625" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
     <col min="4" max="4" width="41.08203125" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
@@ -704,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,15 +753,15 @@
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -769,21 +769,21 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,173 +791,173 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
